--- a/Assets/Resources/ExcelDB/DialogueDB.xlsx
+++ b/Assets/Resources/ExcelDB/DialogueDB.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F41DEBC-190E-4A97-A878-3CC3D0235625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="dialogue" sheetId="1" r:id="rId1"/>
@@ -225,7 +224,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,11 +554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -803,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
